--- a/CNN_test.xlsx
+++ b/CNN_test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="30_05_2017" sheetId="1" r:id="rId1"/>
+    <sheet name="31_05_2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="231">
   <si>
     <t>Conv2D</t>
   </si>
@@ -91,13 +92,634 @@
   </si>
   <si>
     <t>confidences:</t>
+  </si>
+  <si>
+    <t>Epoch 1/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 1.2158</t>
+  </si>
+  <si>
+    <t>Epoch 2/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 1.0146</t>
+  </si>
+  <si>
+    <t>Epoch 3/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.9568</t>
+  </si>
+  <si>
+    <t>Epoch 4/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.8494</t>
+  </si>
+  <si>
+    <t>Epoch 5/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.6936</t>
+  </si>
+  <si>
+    <t>Epoch 6/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.6046</t>
+  </si>
+  <si>
+    <t>Epoch 7/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.5277</t>
+  </si>
+  <si>
+    <t>Epoch 8/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.4876</t>
+  </si>
+  <si>
+    <t>Epoch 9/100</t>
+  </si>
+  <si>
+    <t>25s - loss: 0.5078</t>
+  </si>
+  <si>
+    <t>Epoch 10/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.4374</t>
+  </si>
+  <si>
+    <t>Epoch 11/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.4242</t>
+  </si>
+  <si>
+    <t>Epoch 12/100</t>
+  </si>
+  <si>
+    <t>25s - loss: 0.3972</t>
+  </si>
+  <si>
+    <t>Epoch 13/100</t>
+  </si>
+  <si>
+    <t>26s - loss: 0.3750</t>
+  </si>
+  <si>
+    <t>Epoch 14/100</t>
+  </si>
+  <si>
+    <t>26s - loss: 0.3619</t>
+  </si>
+  <si>
+    <t>Epoch 15/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.3578</t>
+  </si>
+  <si>
+    <t>Epoch 16/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.3281</t>
+  </si>
+  <si>
+    <t>Epoch 17/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.3003</t>
+  </si>
+  <si>
+    <t>Epoch 18/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.3151</t>
+  </si>
+  <si>
+    <t>Epoch 19/100</t>
+  </si>
+  <si>
+    <t>25s - loss: 0.2914</t>
+  </si>
+  <si>
+    <t>Epoch 20/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.3026</t>
+  </si>
+  <si>
+    <t>Epoch 21/100</t>
+  </si>
+  <si>
+    <t>25s - loss: 0.2718</t>
+  </si>
+  <si>
+    <t>Epoch 22/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.2668</t>
+  </si>
+  <si>
+    <t>Epoch 23/100</t>
+  </si>
+  <si>
+    <t>39s - loss: 0.2806</t>
+  </si>
+  <si>
+    <t>Epoch 24/100</t>
+  </si>
+  <si>
+    <t>45s - loss: 0.2581</t>
+  </si>
+  <si>
+    <t>Epoch 25/100</t>
+  </si>
+  <si>
+    <t>45s - loss: 0.2363</t>
+  </si>
+  <si>
+    <t>Epoch 26/100</t>
+  </si>
+  <si>
+    <t>45s - loss: 0.2448</t>
+  </si>
+  <si>
+    <t>Epoch 27/100</t>
+  </si>
+  <si>
+    <t>38s - loss: 0.2313</t>
+  </si>
+  <si>
+    <t>Epoch 28/100</t>
+  </si>
+  <si>
+    <t>29s - loss: 0.2252</t>
+  </si>
+  <si>
+    <t>Epoch 29/100</t>
+  </si>
+  <si>
+    <t>38s - loss: 0.2109</t>
+  </si>
+  <si>
+    <t>Epoch 30/100</t>
+  </si>
+  <si>
+    <t>21s - loss: 0.2409</t>
+  </si>
+  <si>
+    <t>Epoch 31/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.2275</t>
+  </si>
+  <si>
+    <t>Epoch 32/100</t>
+  </si>
+  <si>
+    <t>21s - loss: 0.1844</t>
+  </si>
+  <si>
+    <t>Epoch 33/100</t>
+  </si>
+  <si>
+    <t>21s - loss: 0.1817</t>
+  </si>
+  <si>
+    <t>Epoch 34/100</t>
+  </si>
+  <si>
+    <t>21s - loss: 0.1926</t>
+  </si>
+  <si>
+    <t>Epoch 35/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1915</t>
+  </si>
+  <si>
+    <t>Epoch 36/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1786</t>
+  </si>
+  <si>
+    <t>Epoch 37/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.1722</t>
+  </si>
+  <si>
+    <t>Epoch 38/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.1507</t>
+  </si>
+  <si>
+    <t>Epoch 39/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1619</t>
+  </si>
+  <si>
+    <t>Epoch 40/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1572</t>
+  </si>
+  <si>
+    <t>Epoch 41/100</t>
+  </si>
+  <si>
+    <t>40s - loss: 0.1724</t>
+  </si>
+  <si>
+    <t>Epoch 42/100</t>
+  </si>
+  <si>
+    <t>28s - loss: 0.1579</t>
+  </si>
+  <si>
+    <t>Epoch 43/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.1441</t>
+  </si>
+  <si>
+    <t>Epoch 44/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1517</t>
+  </si>
+  <si>
+    <t>Epoch 45/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1449</t>
+  </si>
+  <si>
+    <t>Epoch 46/100</t>
+  </si>
+  <si>
+    <t>29s - loss: 0.1570</t>
+  </si>
+  <si>
+    <t>Epoch 47/100</t>
+  </si>
+  <si>
+    <t>45s - loss: 0.1377</t>
+  </si>
+  <si>
+    <t>Epoch 48/100</t>
+  </si>
+  <si>
+    <t>45s - loss: 0.1288</t>
+  </si>
+  <si>
+    <t>Epoch 49/100</t>
+  </si>
+  <si>
+    <t>44s - loss: 0.1427</t>
+  </si>
+  <si>
+    <t>Epoch 50/100</t>
+  </si>
+  <si>
+    <t>41s - loss: 0.1431</t>
+  </si>
+  <si>
+    <t>Epoch 51/100</t>
+  </si>
+  <si>
+    <t>45s - loss: 0.1312</t>
+  </si>
+  <si>
+    <t>Epoch 52/100</t>
+  </si>
+  <si>
+    <t>47s - loss: 0.1332</t>
+  </si>
+  <si>
+    <t>Epoch 53/100</t>
+  </si>
+  <si>
+    <t>41s - loss: 0.1321</t>
+  </si>
+  <si>
+    <t>Epoch 54/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1401</t>
+  </si>
+  <si>
+    <t>Epoch 55/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1215</t>
+  </si>
+  <si>
+    <t>Epoch 56/100</t>
+  </si>
+  <si>
+    <t>40s - loss: 0.1203</t>
+  </si>
+  <si>
+    <t>Epoch 57/100</t>
+  </si>
+  <si>
+    <t>45s - loss: 0.1483</t>
+  </si>
+  <si>
+    <t>Epoch 58/100</t>
+  </si>
+  <si>
+    <t>46s - loss: 0.1291</t>
+  </si>
+  <si>
+    <t>Epoch 59/100</t>
+  </si>
+  <si>
+    <t>48s - loss: 0.1179</t>
+  </si>
+  <si>
+    <t>Epoch 60/100</t>
+  </si>
+  <si>
+    <t>54s - loss: 0.1126</t>
+  </si>
+  <si>
+    <t>Epoch 61/100</t>
+  </si>
+  <si>
+    <t>70s - loss: 0.1350</t>
+  </si>
+  <si>
+    <t>Epoch 62/100</t>
+  </si>
+  <si>
+    <t>70s - loss: 0.1290</t>
+  </si>
+  <si>
+    <t>Epoch 63/100</t>
+  </si>
+  <si>
+    <t>52s - loss: 0.1168</t>
+  </si>
+  <si>
+    <t>Epoch 64/100</t>
+  </si>
+  <si>
+    <t>44s - loss: 0.1434</t>
+  </si>
+  <si>
+    <t>Epoch 65/100</t>
+  </si>
+  <si>
+    <t>42s - loss: 0.1417</t>
+  </si>
+  <si>
+    <t>Epoch 66/100</t>
+  </si>
+  <si>
+    <t>44s - loss: 0.1227</t>
+  </si>
+  <si>
+    <t>Epoch 67/100</t>
+  </si>
+  <si>
+    <t>35s - loss: 0.1224</t>
+  </si>
+  <si>
+    <t>Epoch 68/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1076</t>
+  </si>
+  <si>
+    <t>Epoch 69/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1044</t>
+  </si>
+  <si>
+    <t>Epoch 70/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1189</t>
+  </si>
+  <si>
+    <t>Epoch 71/100</t>
+  </si>
+  <si>
+    <t>21s - loss: 0.1121</t>
+  </si>
+  <si>
+    <t>Epoch 72/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1125</t>
+  </si>
+  <si>
+    <t>Epoch 73/100</t>
+  </si>
+  <si>
+    <t>21s - loss: 0.1184</t>
+  </si>
+  <si>
+    <t>Epoch 74/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1062</t>
+  </si>
+  <si>
+    <t>Epoch 75/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1096</t>
+  </si>
+  <si>
+    <t>Epoch 76/100</t>
+  </si>
+  <si>
+    <t>21s - loss: 0.0983</t>
+  </si>
+  <si>
+    <t>Epoch 77/100</t>
+  </si>
+  <si>
+    <t>Epoch 78/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1150</t>
+  </si>
+  <si>
+    <t>Epoch 79/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1027</t>
+  </si>
+  <si>
+    <t>Epoch 80/100</t>
+  </si>
+  <si>
+    <t>25s - loss: 0.1001</t>
+  </si>
+  <si>
+    <t>Epoch 81/100</t>
+  </si>
+  <si>
+    <t>44s - loss: 0.1038</t>
+  </si>
+  <si>
+    <t>Epoch 82/100</t>
+  </si>
+  <si>
+    <t>43s - loss: 0.1020</t>
+  </si>
+  <si>
+    <t>Epoch 83/100</t>
+  </si>
+  <si>
+    <t>42s - loss: 0.1029</t>
+  </si>
+  <si>
+    <t>Epoch 84/100</t>
+  </si>
+  <si>
+    <t>44s - loss: 0.1181</t>
+  </si>
+  <si>
+    <t>Epoch 85/100</t>
+  </si>
+  <si>
+    <t>42s - loss: 0.1045</t>
+  </si>
+  <si>
+    <t>Epoch 86/100</t>
+  </si>
+  <si>
+    <t>44s - loss: 0.1027</t>
+  </si>
+  <si>
+    <t>Epoch 87/100</t>
+  </si>
+  <si>
+    <t>35s - loss: 0.1116</t>
+  </si>
+  <si>
+    <t>Epoch 88/100</t>
+  </si>
+  <si>
+    <t>24s - loss: 0.1036</t>
+  </si>
+  <si>
+    <t>Epoch 89/100</t>
+  </si>
+  <si>
+    <t>25s - loss: 0.1013</t>
+  </si>
+  <si>
+    <t>Epoch 90/100</t>
+  </si>
+  <si>
+    <t>25s - loss: 0.0972</t>
+  </si>
+  <si>
+    <t>Epoch 91/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1050</t>
+  </si>
+  <si>
+    <t>Epoch 92/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1639</t>
+  </si>
+  <si>
+    <t>Epoch 93/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.1154</t>
+  </si>
+  <si>
+    <t>Epoch 94/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.1008</t>
+  </si>
+  <si>
+    <t>Epoch 95/100</t>
+  </si>
+  <si>
+    <t>23s - loss: 0.1038</t>
+  </si>
+  <si>
+    <t>Epoch 96/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.0975</t>
+  </si>
+  <si>
+    <t>Epoch 97/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1009</t>
+  </si>
+  <si>
+    <t>Epoch 98/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.0988</t>
+  </si>
+  <si>
+    <t>Epoch 99/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1278</t>
+  </si>
+  <si>
+    <t>Epoch 100/100</t>
+  </si>
+  <si>
+    <t>22s - loss: 0.1415</t>
+  </si>
+  <si>
+    <t>[ 76.31578947]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cnn.compile(loss="categorical_crossentropy", optimizer=Adam(lr=0.0001, beta_1=0.9, beta_2=0.999, epsilon=1e-08, decay=0.0001))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #default parameters coming from the paper: https://arxiv.org/abs/1412.6980v8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cnn.fit(X, y, epochs=100, batch_size = 0, verbose = 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cnn.fit(X, y, epochs=100, batch_size = 20, verbose = 2)</t>
+  </si>
+  <si>
+    <t>CNN_Calcium_signalling FILE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +772,21 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -205,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +884,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -964,4 +1608,1079 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L209"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.453125" customWidth="1"/>
+    <col min="12" max="12" width="77.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="L2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>